--- a/10_Management/Exam_PMP -TangToc.xlsx
+++ b/10_Management/Exam_PMP -TangToc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC5561-FCB8-49C3-8147-8757702993F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FE8F41-C5CB-415D-B870-2E244C6718C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="6" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Planning1" sheetId="11" r:id="rId6"/>
     <sheet name="Planning3" sheetId="16" r:id="rId7"/>
     <sheet name="Executing1" sheetId="15" r:id="rId8"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId9"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId10"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId11"/>
-    <sheet name="Executing" sheetId="4" r:id="rId12"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId13"/>
-    <sheet name="Closing" sheetId="6" r:id="rId14"/>
-    <sheet name="Mock" sheetId="8" r:id="rId15"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId16"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId9"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId10"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId11"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId12"/>
+    <sheet name="Executing" sheetId="4" r:id="rId13"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId14"/>
+    <sheet name="Closing" sheetId="6" r:id="rId15"/>
+    <sheet name="Mock" sheetId="8" r:id="rId16"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="210">
   <si>
     <t>No</t>
   </si>
@@ -649,6 +650,105 @@
   </si>
   <si>
     <t>Start and finish dates for each activity are outputs of the Develop Schedule process</t>
+  </si>
+  <si>
+    <t>Không có khái niệm Giving stakeholders added value</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Hiểu sai vấn đề, đang hiểu thuộc vấn đề communication</t>
+  </si>
+  <si>
+    <t>tìm hiểu lại về function organization</t>
+  </si>
+  <si>
+    <t>éo hiểu</t>
+  </si>
+  <si>
+    <t>hỏi thầy</t>
+  </si>
+  <si>
+    <t>dài vãi</t>
+  </si>
+  <si>
+    <t>tự tìm hiểu ý nghĩa</t>
+  </si>
+  <si>
+    <t>hiểu theo a Nam: dù ceo k quan tâm nhưng vẫn làm theo chuẩn PMI</t>
+  </si>
+  <si>
+    <t>Theo luật công ty làm</t>
+  </si>
+  <si>
+    <t>note: cứ hối lộ là remove luôn. You need to protect your company's interests and limit sellers from gaining information that can be used to their advantage in subsequent negotiations</t>
+  </si>
+  <si>
+    <t>nội bộ nên gặp riêng, với khách hàng thì hiểu root cause of the problem</t>
+  </si>
+  <si>
+    <t>dạng report cần issues, option</t>
+  </si>
+  <si>
+    <t>cần chú ý: hurting nhân viên,liên quan tới con ng</t>
+  </si>
+  <si>
+    <t>Cần phải confirm thêm thông tin từ ng khác để có đủ thông tin</t>
+  </si>
+  <si>
+    <t>sử dụng delphi technique</t>
+  </si>
+  <si>
+    <t>Note: từ chối tặng quà</t>
+  </si>
+  <si>
+    <t>Note: Any document created by someone else should be considered copyrighted information =&gt; có bản quyền. Xin phép là best choice</t>
+  </si>
+  <si>
+    <t>Những hành động bất hợp pháp đều từ chối</t>
+  </si>
+  <si>
+    <t>Since it is illegal, ethically, you must refuse to make the payment.</t>
+  </si>
+  <si>
+    <t>Note: Code of ethics, tất cả các hành động trộm cắp đều report</t>
+  </si>
+  <si>
+    <t>Chọn pa hợp lý nhất, không được đặt quyền lợi của mình trên những ng khác</t>
+  </si>
+  <si>
+    <t>Note: Lessonlearn register là living document, nó được updated througout project</t>
+  </si>
+  <si>
+    <t>Cần nắm lại code of ethics của PMI. Nếu có hành động illegal thì cần report lên manager</t>
+  </si>
+  <si>
+    <t>hiểu từ postpone = hoãn lại, nằm trong conflict management của manage Team</t>
+  </si>
+  <si>
+    <t>sử dụng withdrawing,</t>
+  </si>
+  <si>
+    <t>Nếu có lợi thì cứ thỏa thuận 2 bên cùng có lợi.  Reference problem solving/ confronting =&gt; conflict management</t>
+  </si>
+  <si>
+    <t>Note: đề k nói là cty bất hợp pháp chỉ là bảo mật nên là quit khỏi cty và k bàn luận về đề tài đó</t>
+  </si>
+  <si>
+    <t>code of ethics</t>
+  </si>
+  <si>
+    <t>Emotional intelligence: sự đồng cảm</t>
+  </si>
+  <si>
+    <t>Emotional intelligence: sự đồng cảm. Trong phần manage team. Social awareness, để họ nói về 1 đặc điểm văn hóa ở chỗ họ để có thông cảm, tránh các risk tiềm ẩn</t>
+  </si>
+  <si>
+    <t>seller đòi tăng giá, thì cần đàm phán để giảm giá=&gt; nằm trong conduct procurement</t>
+  </si>
+  <si>
+    <t>Hiểu sai đề</t>
   </si>
 </sst>
 </file>
@@ -698,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,8 +811,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -828,12 +934,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -864,6 +1024,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -873,8 +1036,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,6 +1527,257 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1352,264 +1791,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1627,6 +1922,150 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -1912,11 +2351,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -1924,7 +2365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1936,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1948,7 +2389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2153,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2495,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H22:I23"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2550,7 +2991,7 @@
       <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>166</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -3473,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3994,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4006,7 +4447,7 @@
     <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -4023,14 +4464,14 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4038,144 +4479,165 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.5">
+      <c r="D2" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="60">
+      <c r="B3" s="8"/>
+      <c r="C3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="8"/>
+      <c r="C4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="45">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="93" customHeight="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="93" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="165">
+      <c r="C10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="8"/>
+      <c r="C11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="30">
+      <c r="C12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
@@ -4184,22 +4646,18 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
@@ -4208,387 +4666,1030 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="90">
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="75">
+      <c r="D19" s="8"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="8"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="75">
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="18"/>
+      <c r="F25" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" ht="45">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" ht="45">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" ht="60">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{E6EFFE04-3B8B-4023-A3E9-B468FA87A6F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C13:C51" xr:uid="{AF42648F-E14C-43AE-B84C-0AA01D40494A}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8F640CE0-5A66-4BCF-853C-BA928306A771}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{D13106E9-3EAF-496D-95AB-02AA3CEF0C81}">
       <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{72DE0E27-59FB-4713-8107-E8245856DACC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A13" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{46F0CFBB-DBC4-46A9-811C-8D3D8566D698}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C13:C51" xr:uid="{35040A55-7DF6-4483-A66A-E83420658B24}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{B419B042-CA3F-4F33-8CAB-BF60702FFC7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/10_Management/Exam_PMP -TangToc.xlsx
+++ b/10_Management/Exam_PMP -TangToc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FE8F41-C5CB-415D-B870-2E244C6718C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D491129C-D974-4BDD-A864-FC87823F7E8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="2" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="216">
   <si>
     <t>No</t>
   </si>
@@ -748,7 +748,25 @@
     <t>seller đòi tăng giá, thì cần đàm phán để giảm giá=&gt; nằm trong conduct procurement</t>
   </si>
   <si>
-    <t>Hiểu sai đề</t>
+    <t>Cảnh cáo lần 1: informal verbal, lần 2 là formal verbal</t>
+  </si>
+  <si>
+    <t>Note: việc negotiate thì cần lưu ý đầu tiên là có tuân thủ ethical không, ràng buộc với rule của công ty không, cuối cùng là quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đầu tiên là phải understanding </t>
+  </si>
+  <si>
+    <t>You need to analyze the problems and identify what caused them before taking any other action.</t>
+  </si>
+  <si>
+    <t>phần này liên quan tới intergrated Integration refers to combining activities, not team members.</t>
+  </si>
+  <si>
+    <t>khong hieu cau hoi</t>
+  </si>
+  <si>
+    <t>Note: xung đột về tính cách là ít gặp nhất (personality). Câu này cần đọc hiểu tiếng anh tốt</t>
   </si>
 </sst>
 </file>
@@ -1027,15 +1045,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1062,6 +1071,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,222 +1558,222 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1791,120 +1809,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1935,120 +1953,120 @@
       <c r="A1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4438,7 +4456,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4464,10 +4482,10 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4482,8 +4500,8 @@
       <c r="D2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4492,142 +4510,142 @@
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="93" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8">
@@ -4636,8 +4654,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
@@ -4646,8 +4664,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
@@ -4656,8 +4674,8 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
@@ -4666,8 +4684,8 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8">
@@ -4676,8 +4694,8 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8">
@@ -4686,8 +4704,8 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8">
@@ -4696,8 +4714,8 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8">
@@ -4706,8 +4724,8 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8">
@@ -4716,8 +4734,8 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8">
@@ -4726,8 +4744,8 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8">
@@ -4736,8 +4754,8 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8">
@@ -4746,8 +4764,8 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8">
@@ -4756,8 +4774,8 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4768,8 +4786,8 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4780,8 +4798,8 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4792,8 +4810,8 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4804,8 +4822,8 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4818,8 +4836,8 @@
         <v>4</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4830,8 +4848,8 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4842,8 +4860,8 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4858,10 +4876,10 @@
       <c r="D33" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4872,10 +4890,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4886,8 +4904,8 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4902,8 +4920,8 @@
       <c r="D36" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4918,10 +4936,10 @@
       <c r="D37" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4934,10 +4952,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4948,8 +4966,8 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4962,10 +4980,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4978,10 +4996,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4994,10 +5012,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="8">
@@ -5010,10 +5028,10 @@
       <c r="D43" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5024,8 +5042,8 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
@@ -5034,8 +5052,8 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
@@ -5044,8 +5062,8 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" ht="45">
       <c r="A47" s="8">
@@ -5056,10 +5074,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="8"/>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="19"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" ht="45">
       <c r="A48" s="8">
@@ -5070,10 +5088,10 @@
       <c r="D48" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F48" s="19"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" ht="60">
       <c r="A49" s="8">
@@ -5086,10 +5104,10 @@
       <c r="D49" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5102,10 +5120,10 @@
         <v>23</v>
       </c>
       <c r="D50" s="8"/>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F50" s="19"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8">
@@ -5114,8 +5132,8 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19" t="s">
+      <c r="E51" s="15"/>
+      <c r="F51" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5140,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5167,10 +5185,10 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5181,8 +5199,10 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8">
@@ -5191,8 +5211,10 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8">
@@ -5201,18 +5223,22 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8">
@@ -5221,48 +5247,64 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8">
@@ -5271,18 +5313,24 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8">
@@ -5291,8 +5339,8 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
@@ -5301,8 +5349,8 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8">
@@ -5311,8 +5359,8 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
@@ -5321,8 +5369,8 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8">
@@ -5331,8 +5379,8 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8">
@@ -5341,8 +5389,8 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8">
@@ -5351,8 +5399,8 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8">
@@ -5361,8 +5409,8 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8">
@@ -5371,8 +5419,8 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8">
@@ -5381,8 +5429,8 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8">
@@ -5391,8 +5439,8 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8">
@@ -5401,8 +5449,8 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8">
@@ -5411,8 +5459,8 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8">
@@ -5421,8 +5469,8 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8">
@@ -5431,8 +5479,8 @@
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8">
@@ -5441,8 +5489,8 @@
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8">
@@ -5451,8 +5499,8 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8">
@@ -5461,8 +5509,8 @@
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8">
@@ -5471,8 +5519,8 @@
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8">
@@ -5481,8 +5529,8 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8">
@@ -5491,8 +5539,8 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8">
@@ -5501,8 +5549,8 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8">
@@ -5511,8 +5559,8 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8">
@@ -5521,8 +5569,8 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8">
@@ -5531,8 +5579,8 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8">
@@ -5541,8 +5589,8 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8">
@@ -5551,8 +5599,8 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8">
@@ -5561,8 +5609,8 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8">
@@ -5571,8 +5619,8 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8">
@@ -5581,8 +5629,8 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8">
@@ -5591,8 +5639,8 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8">
@@ -5601,8 +5649,8 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
@@ -5611,8 +5659,8 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
@@ -5621,8 +5669,8 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
@@ -5631,22 +5679,18 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8">
@@ -5655,8 +5699,8 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="8">
@@ -5665,8 +5709,8 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8">
@@ -5675,15 +5719,15 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{46F0CFBB-DBC4-46A9-811C-8D3D8566D698}">
       <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C13:C51" xr:uid="{35040A55-7DF6-4483-A66A-E83420658B24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{35040A55-7DF6-4483-A66A-E83420658B24}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
   </dataValidations>

--- a/10_Management/Exam_PMP -TangToc.xlsx
+++ b/10_Management/Exam_PMP -TangToc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D491129C-D974-4BDD-A864-FC87823F7E8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214855B-9054-4B98-BB16-45D7695ED86F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="2" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="219">
   <si>
     <t>No</t>
   </si>
@@ -767,6 +767,15 @@
   </si>
   <si>
     <t>Note: xung đột về tính cách là ít gặp nhất (personality). Câu này cần đọc hiểu tiếng anh tốt</t>
+  </si>
+  <si>
+    <t>Note: việc team đang ở trạng thái forming, create wbs và sử dụng history tự dự án trc sẽ làm cho việc estimate không chính xác</t>
+  </si>
+  <si>
+    <t>Note: việc thông báo cần phải thông báo cho stakeholders, stakeholder dùng chung cho sponsor, team members, functional managers</t>
+  </si>
+  <si>
+    <t>Note: những cái miss ở wbs sẽ phải được thêm vào. Tuy nhiên trước khi mà thêm vào cần phải được đánh giá ở Perform integrated change control process. Thay đổi này sau đó được add vào network diagram and estimate. Thay đổi này sẽ được approved và update project management plan. phải pass qua change control process</t>
   </si>
 </sst>
 </file>
@@ -1777,12 +1786,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -1790,6 +1793,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5158,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H46" sqref="H43:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5632,14 +5641,18 @@
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="120">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6">
@@ -5662,14 +5675,18 @@
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="60">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D46" s="8"/>
-      <c r="E46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>217</v>
+      </c>
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6">
@@ -5682,14 +5699,18 @@
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="45">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6">

--- a/10_Management/Exam_PMP -TangToc.xlsx
+++ b/10_Management/Exam_PMP -TangToc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214855B-9054-4B98-BB16-45D7695ED86F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953B57A-724D-4ADD-ADDA-C438169E7890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="2" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,16 @@
     <sheet name="Planning3" sheetId="16" r:id="rId7"/>
     <sheet name="Executing1" sheetId="15" r:id="rId8"/>
     <sheet name="Executing 2" sheetId="17" r:id="rId9"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId10"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId11"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId12"/>
-    <sheet name="Executing" sheetId="4" r:id="rId13"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId14"/>
-    <sheet name="Closing" sheetId="6" r:id="rId15"/>
-    <sheet name="Mock" sheetId="8" r:id="rId16"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId17"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId10"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId11"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId12"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId13"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId14"/>
+    <sheet name="Executing" sheetId="4" r:id="rId15"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId16"/>
+    <sheet name="Closing" sheetId="6" r:id="rId17"/>
+    <sheet name="Mock" sheetId="8" r:id="rId18"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="240">
   <si>
     <t>No</t>
   </si>
@@ -777,12 +779,114 @@
   <si>
     <t>Note: những cái miss ở wbs sẽ phải được thêm vào. Tuy nhiên trước khi mà thêm vào cần phải được đánh giá ở Perform integrated change control process. Thay đổi này sau đó được add vào network diagram and estimate. Thay đổi này sẽ được approved và update project management plan. phải pass qua change control process</t>
   </si>
+  <si>
+    <t>Ethics: Nhờ nhà thầu mới ký thỏa thuận không tiết lộ</t>
+  </si>
+  <si>
+    <t>Sử dụng wbs để nói chuyện với stakeholder (include customer)</t>
+  </si>
+  <si>
+    <t>project scope statement: phần lớn công việc được quyết định bởi project scope statement nên bất kỳ sự thiếu chính xác nào của tài liệu sẽ dẫn tới việc hiểu sai =&gt; imprecise language (ngôn ngữ là quan trọng)</t>
+  </si>
+  <si>
+    <t>Perform project assessment based upon available information, lessons
+learned from previous projects, and meetings with relevant stakeholders in
+order to support the evaluation of the feasibility of new products or services
+within the given assumptions and/or constraints.</t>
+  </si>
+  <si>
+    <t>Identify key deliverables based on the business requirements in order to
+manage customer expectations and direct the achievement of project goals.</t>
+  </si>
+  <si>
+    <t>Perform stakeholder analysis using appropriate tools and techniques in order
+to align expectations and gain support for the project.</t>
+  </si>
+  <si>
+    <t>Identify high level risks, assumptions, and constraints based on the current
+environment, organizational factors, historical data, and expert judgment, in
+order to propose an implementation strategy.</t>
+  </si>
+  <si>
+    <t>Participate in the development of the project charter by compiling and
+analyzing gathered information in order to ensure project stakeholders are in
+agreement on its elements.</t>
+  </si>
+  <si>
+    <t>Obtain project charter approval from the sponsor, in order to formalize the
+authority assigned to the project manager and gain commitment and
+acceptance for the project.</t>
+  </si>
+  <si>
+    <t>Conduct benefit analysis with relevant stakeholders to validate project
+alignment with organizational strategy and expected business value.</t>
+  </si>
+  <si>
+    <t>Inform stakeholders of the approved project charter to ensure common
+understanding of the key deliverables, milestones, and their roles and
+responsibilities.</t>
+  </si>
+  <si>
+    <t>Knowledge and Skills:2
+ Analytical skills
+ Benefit analysis techniques
+ Elements of a project charter
+ Estimation tools and techniques
+ Strategic management</t>
+  </si>
+  <si>
+    <t>Obtain final acceptance of the project deliverables from relevant stakeholders
+in order to confirm that project scope and deliverables were achieved.</t>
+  </si>
+  <si>
+    <t>Transfer the ownership of deliverables to the assigned stakeholders in
+accordance with the project plan in order to facilitate project closure.</t>
+  </si>
+  <si>
+    <t>Obtain financial, legal, and administrative closure using generally accepted
+practices and policies in order to communicate formal project closure and
+ensure transfer of liability.</t>
+  </si>
+  <si>
+    <t>Prepare and share the final project report according to the communications
+management plan in order to document and convey project performance and
+assist in project evaluation</t>
+  </si>
+  <si>
+    <t>Collate lessons learned that were documented throughout the project and
+conduct a comprehensive project review in order to update the organization's
+knowledge base.</t>
+  </si>
+  <si>
+    <t>Archive project documents and materials using generally accepted practices
+in order to comply with statutory requirements and for potential use in future
+projects and audits.</t>
+  </si>
+  <si>
+    <t>Obtain feedback from relevant stakeholders using appropriate tools and
+techniques and based on the stakeholder management plan in order to
+evaluate their satisfaction</t>
+  </si>
+  <si>
+    <t>Knowledge and Skills:6
+ Archiving practices and statutes
+ Compliance (statute/organization)
+ Contract closure requirements
+ Close-out procedures
+ Feedback techniques
+ Performance measurement techniques (KPI and key success factors)
+ Project review techniques
+ Transition planning technique</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,6 +927,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial-BoldMT"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1020,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1089,6 +1198,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1406,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1417,9 +1535,10 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
+    <row r="1" spans="1:7" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,8 +1554,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1444,8 +1566,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1459,8 +1587,9 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1468,8 +1597,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1483,8 +1613,9 @@
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1492,8 +1623,9 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1501,8 +1633,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1510,8 +1643,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1519,8 +1653,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1528,8 +1663,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1541,11 +1677,135 @@
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{3304A8B5-47A5-4F23-84E1-58AA52BB5878}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{EAAF5048-CA98-4AB1-A381-A44FD7CC7721}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,11 +1814,188 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="M9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1804,7 +2241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1922,150 +2359,6 @@
       </c>
       <c r="B7" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>165</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -2093,6 +2386,309 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2378,12 +2974,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2392,11 +2988,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -2404,7 +3002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2416,7 +3014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2585,15 +3183,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="99.75" customHeight="1" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3941,7 +4703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -4464,8 +5226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5167,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H46" sqref="H43:H46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5581,24 +6343,30 @@
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="75">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
@@ -5621,14 +6389,18 @@
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="30">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">

--- a/10_Management/Exam_PMP -TangToc.xlsx
+++ b/10_Management/Exam_PMP -TangToc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953B57A-724D-4ADD-ADDA-C438169E7890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F98B8-831C-47F3-AB4E-DE9C0C3A53A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="6" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -880,6 +880,48 @@
   </si>
   <si>
     <t>exe</t>
+  </si>
+  <si>
+    <t>Exe</t>
+  </si>
+  <si>
+    <t>manage stakeholder engagement sang vị trí expectation</t>
+  </si>
+  <si>
+    <t>identify key deliverable</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop the stakeholder management plan bằng việc phân tích need, interest, potential impact, </t>
+  </si>
+  <si>
+    <t>Initiating</t>
+  </si>
+  <si>
+    <t>chỉ cần các stakeholder ở mức supportive là ok, nếu là leading thì có thể serious hoặc conflict ngay</t>
+  </si>
+  <si>
+    <t>chuyển trạng thái của các stakeholder thông qua việc analysis, expectation và engagement của stakeholders</t>
+  </si>
+  <si>
+    <t>lưu ý nếu là PM của công ty đối thủ thì sẽ không có lời khuyên còn nếu cùng công ty và các dự án tương tự thì đc coi là analogous to expert judgment</t>
+  </si>
+  <si>
+    <t>Hiểu sai đề</t>
+  </si>
+  <si>
+    <t>Task3</t>
+  </si>
+  <si>
+    <t>Note: PM software mục đích chỉ để creating và controlling schedule</t>
+  </si>
+  <si>
+    <t>Quên lý thuyết</t>
+  </si>
+  <si>
+    <t>validate scope, control schedule xảy ra sau trong project, nếu thiếu network diagram k thể build schedule</t>
   </si>
 </sst>
 </file>
@@ -954,7 +996,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1124,12 +1166,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1209,6 +1262,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1524,21 +1578,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD89E-6595-4ED6-8407-B1A3D616014F}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1573,7 +1628,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1587,9 +1642,14 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1599,7 +1659,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1615,7 +1675,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1625,27 +1685,39 @@
       <c r="E6" s="3"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1653,9 +1725,17 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1663,9 +1743,17 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1677,135 +1765,149 @@
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="16"/>
+      <c r="F17"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="16"/>
+      <c r="F18"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="16"/>
+      <c r="F19"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="16"/>
+      <c r="F20"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="16"/>
+      <c r="F21"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="16"/>
+      <c r="F22"/>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="16"/>
+      <c r="F23"/>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="16"/>
+      <c r="F24"/>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="16"/>
+      <c r="F25"/>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="16"/>
+      <c r="F26"/>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="16"/>
+      <c r="F27"/>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="16"/>
+      <c r="F28"/>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="16"/>
+      <c r="F29"/>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="16"/>
+      <c r="F30"/>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="16"/>
+      <c r="F31"/>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="16"/>
+      <c r="F32"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="16"/>
+      <c r="F33"/>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="16"/>
+      <c r="F34"/>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="16"/>
+      <c r="F35"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="16"/>
+      <c r="F36"/>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="16"/>
+      <c r="F37"/>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="16"/>
+      <c r="F38"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="16"/>
+      <c r="F39"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="16"/>
+      <c r="F40"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="16"/>
+      <c r="F41"/>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="16"/>
+      <c r="F42"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="16"/>
+      <c r="F43"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="16"/>
+      <c r="F44"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="16"/>
+      <c r="F45"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="16"/>
+      <c r="F46"/>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="16"/>
+      <c r="F47"/>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="16"/>
+      <c r="F48"/>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="16"/>
+      <c r="F49"/>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="16"/>
+      <c r="F50"/>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="16"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{3304A8B5-47A5-4F23-84E1-58AA52BB5878}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{EAAF5048-CA98-4AB1-A381-A44FD7CC7721}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F51 F3:F7 F9" xr:uid="{EAAF5048-CA98-4AB1-A381-A44FD7CC7721}">
       <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 F8" xr:uid="{6BF01FEF-D2F1-4CB3-B4A6-998CE3772D88}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8, Task 9, Task 10, Task 11, Task 12, Task 13"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1994,9 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2223,6 +2323,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -2230,12 +2336,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3725,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4701,10 +4801,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4717,7 +4817,7 @@
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4730,11 +4830,14 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="135">
+      <c r="F1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="135">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4743,29 +4846,32 @@
         <v>4</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4776,27 +4882,30 @@
       <c r="D5" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="45">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4809,128 +4918,142 @@
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="93" customHeight="1">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="93" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -4941,27 +5064,30 @@
       <c r="D22" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -4972,18 +5098,20 @@
       <c r="D25" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="30">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -4994,231 +5122,277 @@
       <c r="D27" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="8">
         <v>41</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="8">
         <v>43</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="120">
       <c r="A50" s="8">
         <v>49</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="90">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{D29BDF0D-F445-4B65-9135-F889A0BDA130}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{0E28E552-0294-498E-9305-D77F50FA764C}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8, Task 9, Task 10, Task 11, Task 12, Task 13"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{4310869D-6A7C-4B9D-9E06-C2B2A6AD2493}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
